--- a/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Abríl.xlsx
+++ b/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Abríl.xlsx
@@ -331,7 +331,7 @@
         </is>
       </c>
       <c r="B13" s="65">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B77" s="65">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B109" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="B126" s="65">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="B130" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
